--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFFDE4-17AC-49D1-935D-FE44A8D679A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD858E-3DA3-4312-9235-140501498B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD858E-3DA3-4312-9235-140501498B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E0CFCE-C397-423D-BAE1-91402C2F35A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>2 hours</t>
   </si>
@@ -57,6 +57,27 @@
   </si>
   <si>
     <t>discussing statistics</t>
+  </si>
+  <si>
+    <t>cleaning data</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>1.5 hours</t>
   </si>
 </sst>
 </file>
@@ -375,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,45 +411,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>45662</v>
+      <c r="A1" t="s">
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45663</v>
+        <v>45662</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45667</v>
+        <v>45663</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E0CFCE-C397-423D-BAE1-91402C2F35A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F272A21E-F102-441E-9482-CA0CF5CB60B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>2 hours</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>people</t>
-  </si>
-  <si>
-    <t>1.5 hours</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +468,7 @@
         <v>45667</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F272A21E-F102-441E-9482-CA0CF5CB60B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A51F91-41EE-4A60-AA81-3C59C1E868ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>2 hours</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>people</t>
+  </si>
+  <si>
+    <t>1.25 hours</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,6 +480,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A51F91-41EE-4A60-AA81-3C59C1E868ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB85CDEC-CD86-4479-BFF5-31B564BC7EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>2 hours</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>1.25 hours</t>
+  </si>
+  <si>
+    <t>cleaning and sharing data, reviewing email text</t>
+  </si>
+  <si>
+    <t>.5 hours</t>
   </si>
 </sst>
 </file>
@@ -396,17 +402,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -494,6 +500,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB85CDEC-CD86-4479-BFF5-31B564BC7EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DBCC62-EEA7-49FB-A8E1-F9F13D4F745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>2 hours</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>.5 hours</t>
+  </si>
+  <si>
+    <t>plotting data</t>
   </si>
 </sst>
 </file>
@@ -402,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,6 +517,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DBCC62-EEA7-49FB-A8E1-F9F13D4F745D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB375B5-B0CB-4693-A7D7-A8BA656ACBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="324" yWindow="0" windowWidth="16836" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>2 hours</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>plotting data</t>
+  </si>
+  <si>
+    <t>1 hour</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,6 +531,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB375B5-B0CB-4693-A7D7-A8BA656ACBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725D01FC-5040-465C-A7BA-346BD7C40631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="0" windowWidth="16836" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>2 hours</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>1 hour</t>
+  </si>
+  <si>
+    <t>clean properties data</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,6 +545,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725D01FC-5040-465C-A7BA-346BD7C40631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78435248-E5D1-4616-8AE5-D3A5AF557AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>2 hours</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>clean properties data</t>
+  </si>
+  <si>
+    <t>1 hours</t>
+  </si>
+  <si>
+    <t>discuss plots and next steps</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,6 +562,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78435248-E5D1-4616-8AE5-D3A5AF557AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF44DD6-6144-41FA-A4EB-D82FED9FF5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>2 hours</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>discuss plots and next steps</t>
+  </si>
+  <si>
+    <t>start cleaning new data</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,6 +579,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF44DD6-6144-41FA-A4EB-D82FED9FF5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680D26C9-4DF5-4209-A93C-AB9E449882E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +584,7 @@
         <v>45729</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680D26C9-4DF5-4209-A93C-AB9E449882E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10126FA3-6E0D-4371-9DEE-11510C09BD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>2 hours</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>start cleaning new data</t>
+  </si>
+  <si>
+    <t>discuss data</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,6 +593,20 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10126FA3-6E0D-4371-9DEE-11510C09BD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E083A7E-5D9A-4BFA-9295-8F91BB20BBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>2 hours</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>discuss data</t>
+  </si>
+  <si>
+    <t>cleaning new data file</t>
+  </si>
+  <si>
+    <t>0.5 hours</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,6 +613,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E083A7E-5D9A-4BFA-9295-8F91BB20BBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9BBDDB-5AAC-4E91-A2F8-826A4EE02CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>2 hours</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>0.5 hours</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>plotting new data</t>
   </si>
 </sst>
 </file>
@@ -429,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,6 +630,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9BBDDB-5AAC-4E91-A2F8-826A4EE02CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB389D0-CB17-4C1A-87C7-FEA8FB08669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>2 hours</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>plotting new data</t>
+  </si>
+  <si>
+    <t>printing plots and adding titles</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,6 +644,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB389D0-CB17-4C1A-87C7-FEA8FB08669E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D8F10-281F-4731-9154-420BA26C1A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6312" yWindow="1332" windowWidth="14640" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>2 hours</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>printing plots and adding titles</t>
+  </si>
+  <si>
+    <t>Update data and plots</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,6 +658,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D8F10-281F-4731-9154-420BA26C1A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C529A8-0BE3-4EFE-BB3C-9B804170ABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6312" yWindow="1332" windowWidth="14640" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>2 hours</t>
   </si>
@@ -122,7 +122,10 @@
     <t>printing plots and adding titles</t>
   </si>
   <si>
-    <t>Update data and plots</t>
+    <t>update data and plots</t>
+  </si>
+  <si>
+    <t>write and edit report</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,6 +672,17 @@
         <v>28</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C529A8-0BE3-4EFE-BB3C-9B804170ABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0828F9B4-DCD8-4A9C-A394-30831C295F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>2 hours</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>write and edit report</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>discuss trial</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,7 +470,7 @@
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -471,8 +483,11 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45662</v>
       </c>
@@ -485,8 +500,11 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45663</v>
       </c>
@@ -499,8 +517,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45667</v>
       </c>
@@ -513,8 +534,11 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45667</v>
       </c>
@@ -527,8 +551,11 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45674</v>
       </c>
@@ -541,8 +568,11 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45679</v>
       </c>
@@ -555,8 +585,11 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45681</v>
       </c>
@@ -566,8 +599,11 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45694</v>
       </c>
@@ -577,8 +613,11 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45695</v>
       </c>
@@ -588,8 +627,11 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45725</v>
       </c>
@@ -602,8 +644,11 @@
       <c r="D11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45729</v>
       </c>
@@ -613,8 +658,11 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45733</v>
       </c>
@@ -627,8 +675,11 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45735</v>
       </c>
@@ -638,8 +689,11 @@
       <c r="C14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45736</v>
       </c>
@@ -649,8 +703,11 @@
       <c r="C15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45736</v>
       </c>
@@ -660,8 +717,11 @@
       <c r="C16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45737</v>
       </c>
@@ -671,8 +731,11 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45737</v>
       </c>
@@ -681,6 +744,26 @@
       </c>
       <c r="C18" t="s">
         <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0828F9B4-DCD8-4A9C-A394-30831C295F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E800D-6352-4F2C-A358-838AFFDB12D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>2 hours</t>
   </si>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,6 +766,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hours.xlsx
+++ b/hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yotam\Documents\Grant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E800D-6352-4F2C-A358-838AFFDB12D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02893C0E-A126-42D2-A16E-B485DD131371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>2 hours</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,6 +783,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
